--- a/Matlab/Example/Tabular.xlsx
+++ b/Matlab/Example/Tabular.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codigo\UPIICSA-Code\Metodos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codigo\UPIICSA-Code\Matlab\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -338,9 +338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B1000"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -352,8 +350,8 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>POWER(A1,4)+3*POWER(A1,3)</f>
-        <v>4</v>
+        <f>POWER(A1,5)-3.09*POWER(A1,3)+ 1.12*POWER(A1,2)</f>
+        <v>-0.96999999999999975</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -361,8 +359,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B12" si="0">POWER(A2,4)+3*POWER(A2,3)</f>
-        <v>40</v>
+        <f t="shared" ref="B2:B12" si="0">POWER(A2,5)-3.09*POWER(A2,3)+ 1.12*POWER(A2,2)</f>
+        <v>11.760000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -371,7 +369,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>169.65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -380,7 +378,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>844.16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -389,7 +387,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2766.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +396,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1944</v>
+        <v>7148.88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,7 +405,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3430</v>
+        <v>15802.01</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +414,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5632</v>
+        <v>31257.599999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +423,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8748</v>
+        <v>56887.11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,7 +432,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>97022</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +441,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>18634</v>
+        <v>157073.72999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +450,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>25920</v>
+        <v>243653.76000000001</v>
       </c>
     </row>
   </sheetData>
